--- a/pred_test1.xlsx
+++ b/pred_test1.xlsx
@@ -431,7 +431,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D4"/>
+  <dimension ref="A1:E5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -447,15 +447,20 @@
       </c>
       <c r="B1" s="1" t="inlineStr">
         <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="C1" s="1" t="inlineStr">
+        <is>
           <t>bottles</t>
         </is>
       </c>
-      <c r="C1" s="1" t="inlineStr">
+      <c r="D1" s="1" t="inlineStr">
         <is>
           <t>bowls</t>
         </is>
       </c>
-      <c r="D1" s="1" t="inlineStr">
+      <c r="E1" s="1" t="inlineStr">
         <is>
           <t>jars</t>
         </is>
@@ -464,49 +469,77 @@
     <row r="2">
       <c r="A2" s="1" t="inlineStr">
         <is>
-          <t>bottles</t>
+          <t>None</t>
         </is>
       </c>
       <c r="B2" s="2" t="n">
-        <v>12</v>
+        <v>2</v>
       </c>
       <c r="C2" t="n">
         <v>1</v>
       </c>
-      <c r="D2" s="2" t="n">
-        <v>0</v>
+      <c r="D2" t="n">
+        <v>1</v>
+      </c>
+      <c r="E2" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" s="1" t="inlineStr">
         <is>
-          <t>bowls</t>
+          <t>bottles</t>
         </is>
       </c>
       <c r="B3" s="2" t="n">
         <v>0</v>
       </c>
       <c r="C3" s="2" t="n">
-        <v>9</v>
+        <v>70</v>
       </c>
       <c r="D3" s="2" t="n">
-        <v>0</v>
+        <v>5</v>
+      </c>
+      <c r="E3" s="2" t="n">
+        <v>4</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="1" t="inlineStr">
         <is>
+          <t>bowls</t>
+        </is>
+      </c>
+      <c r="B4" t="n">
+        <v>1</v>
+      </c>
+      <c r="C4" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="D4" s="2" t="n">
+        <v>63</v>
+      </c>
+      <c r="E4" s="2" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="1" t="inlineStr">
+        <is>
           <t>jars</t>
         </is>
       </c>
-      <c r="B4" s="2" t="n">
+      <c r="B5" s="2" t="n">
         <v>0</v>
       </c>
-      <c r="C4" t="n">
+      <c r="C5" t="n">
         <v>1</v>
       </c>
-      <c r="D4" s="2" t="n">
-        <v>9</v>
+      <c r="D5" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="E5" s="2" t="n">
+        <v>59</v>
       </c>
     </row>
   </sheetData>

--- a/pred_test1.xlsx
+++ b/pred_test1.xlsx
@@ -431,7 +431,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:E5"/>
+  <dimension ref="A1:D4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -447,20 +447,15 @@
       </c>
       <c r="B1" s="1" t="inlineStr">
         <is>
-          <t>None</t>
+          <t>bottles</t>
         </is>
       </c>
       <c r="C1" s="1" t="inlineStr">
         <is>
-          <t>bottles</t>
+          <t>bowls</t>
         </is>
       </c>
       <c r="D1" s="1" t="inlineStr">
-        <is>
-          <t>bowls</t>
-        </is>
-      </c>
-      <c r="E1" s="1" t="inlineStr">
         <is>
           <t>jars</t>
         </is>
@@ -469,77 +464,49 @@
     <row r="2">
       <c r="A2" s="1" t="inlineStr">
         <is>
-          <t>None</t>
+          <t>bottles</t>
         </is>
       </c>
       <c r="B2" s="2" t="n">
-        <v>2</v>
-      </c>
-      <c r="C2" t="n">
-        <v>1</v>
-      </c>
-      <c r="D2" t="n">
-        <v>1</v>
-      </c>
-      <c r="E2" t="n">
-        <v>1</v>
+        <v>67</v>
+      </c>
+      <c r="C2" s="2" t="n">
+        <v>15</v>
+      </c>
+      <c r="D2" s="2" t="n">
+        <v>16</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" s="1" t="inlineStr">
         <is>
-          <t>bottles</t>
+          <t>bowls</t>
         </is>
       </c>
       <c r="B3" s="2" t="n">
         <v>0</v>
       </c>
       <c r="C3" s="2" t="n">
-        <v>70</v>
+        <v>48</v>
       </c>
       <c r="D3" s="2" t="n">
-        <v>5</v>
-      </c>
-      <c r="E3" s="2" t="n">
         <v>4</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="1" t="inlineStr">
         <is>
-          <t>bowls</t>
-        </is>
-      </c>
-      <c r="B4" t="n">
-        <v>1</v>
+          <t>jars</t>
+        </is>
+      </c>
+      <c r="B4" s="2" t="n">
+        <v>5</v>
       </c>
       <c r="C4" s="2" t="n">
-        <v>0</v>
+        <v>9</v>
       </c>
       <c r="D4" s="2" t="n">
-        <v>63</v>
-      </c>
-      <c r="E4" s="2" t="n">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="5">
-      <c r="A5" s="1" t="inlineStr">
-        <is>
-          <t>jars</t>
-        </is>
-      </c>
-      <c r="B5" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="C5" t="n">
-        <v>1</v>
-      </c>
-      <c r="D5" s="2" t="n">
-        <v>2</v>
-      </c>
-      <c r="E5" s="2" t="n">
-        <v>59</v>
+        <v>52</v>
       </c>
     </row>
   </sheetData>

--- a/pred_test1.xlsx
+++ b/pred_test1.xlsx
@@ -468,13 +468,13 @@
         </is>
       </c>
       <c r="B2" s="2" t="n">
-        <v>67</v>
-      </c>
-      <c r="C2" s="2" t="n">
-        <v>15</v>
+        <v>71</v>
+      </c>
+      <c r="C2" t="n">
+        <v>1</v>
       </c>
       <c r="D2" s="2" t="n">
-        <v>16</v>
+        <v>10</v>
       </c>
     </row>
     <row r="3">
@@ -483,11 +483,11 @@
           <t>bowls</t>
         </is>
       </c>
-      <c r="B3" s="2" t="n">
-        <v>0</v>
+      <c r="B3" t="n">
+        <v>1</v>
       </c>
       <c r="C3" s="2" t="n">
-        <v>48</v>
+        <v>64</v>
       </c>
       <c r="D3" s="2" t="n">
         <v>4</v>
@@ -499,14 +499,14 @@
           <t>jars</t>
         </is>
       </c>
-      <c r="B4" s="2" t="n">
-        <v>5</v>
+      <c r="B4" t="n">
+        <v>1</v>
       </c>
       <c r="C4" s="2" t="n">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="D4" s="2" t="n">
-        <v>52</v>
+        <v>59</v>
       </c>
     </row>
   </sheetData>
